--- a/ig/ValueSet-mmg-default-exam.xlsx
+++ b/ig/ValueSet-mmg-default-exam.xlsx
@@ -263,10 +263,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ig/ValueSet-mmg-default-exam.xlsx
+++ b/ig/ValueSet-mmg-default-exam.xlsx
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Cqgc (mailto:support@ferlab.bio)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/ValueSet-mmg-default-exam.xlsx
+++ b/ig/ValueSet-mmg-default-exam.xlsx
@@ -96,13 +96,13 @@
     <t>CKIN</t>
   </si>
   <si>
-    <t>Serum creatine kinase</t>
+    <t>Serum Creatine Kinase</t>
   </si>
   <si>
     <t>BMUS</t>
   </si>
   <si>
-    <t>Muscle biopsy</t>
+    <t>Muscle Biopsy</t>
   </si>
   <si>
     <t>IRMM</t>
@@ -126,13 +126,13 @@
     <t>GCNR</t>
   </si>
   <si>
-    <t>GCN Repeat Testing (oculopharyngeal muscular dystrophy)</t>
+    <t>GCN Repeat Testing (Oculopharyngeal Muscular Dystrophy)</t>
   </si>
   <si>
     <t>TGDD</t>
   </si>
   <si>
-    <t>Deletions and Duplications Testing (Duchenne and Becker dystrophies)</t>
+    <t>Deletions and Duplications Testing (Duchenne and Becker Dystrophies)</t>
   </si>
   <si>
     <t/>
